--- a/Notes marketplace.xlsx
+++ b/Notes marketplace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Online Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED143192-03CC-43DE-B8E1-BBE6E1775F10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEEAF38-D1F3-4A03-AA2E-F9D8B7665845}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6204" yWindow="1308" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{DC52EA3B-7104-4C37-8F68-1ADF3F77FAA3}"/>
+    <workbookView xWindow="5784" yWindow="816" windowWidth="14424" windowHeight="8964" xr2:uid="{DC52EA3B-7104-4C37-8F68-1ADF3F77FAA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="154">
   <si>
     <t>Notes MarketPlace</t>
   </si>
@@ -331,9 +331,6 @@
     <t>Buyer id</t>
   </si>
   <si>
-    <t>Allow/Disallow Download</t>
-  </si>
-  <si>
     <t>This entry is done as buyer clicks on download button. Seller is Notified</t>
   </si>
   <si>
@@ -358,9 +355,6 @@
     <t>Table 1: Add Category/Manage Category</t>
   </si>
   <si>
-    <t>Category of Notes can be added and managed thoruh this table</t>
-  </si>
-  <si>
     <t>Categoryid</t>
   </si>
   <si>
@@ -409,9 +403,6 @@
     <t>Table 3: Admin Notes Under Review</t>
   </si>
   <si>
-    <t>Notes can be approved and rejected by admin</t>
-  </si>
-  <si>
     <t>Userid who added notes</t>
   </si>
   <si>
@@ -461,6 +452,42 @@
   </si>
   <si>
     <t>Email id for sending various notification to users</t>
+  </si>
+  <si>
+    <t>Category of Notes can be added and managed through this table</t>
+  </si>
+  <si>
+    <t>Notes added by the seller are given to admin for approval.</t>
+  </si>
+  <si>
+    <t>Allow/Deny Download (By default deny)</t>
+  </si>
+  <si>
+    <t>isemailverified</t>
+  </si>
+  <si>
+    <t>Yes/No (By default No)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noteid </t>
+  </si>
+  <si>
+    <t>Table 8: Inappropriate</t>
+  </si>
+  <si>
+    <t>Users who reported the notes as inappropriate</t>
+  </si>
+  <si>
+    <t>User who reported the notes</t>
+  </si>
+  <si>
+    <t>Notes which is being reported</t>
+  </si>
+  <si>
+    <t>Remarks for inappropriate review</t>
+  </si>
+  <si>
+    <t>Date and time of being reported</t>
   </si>
 </sst>
 </file>
@@ -595,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -637,9 +664,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -650,25 +674,33 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,36 +1016,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B429900-9447-402A-929B-FEB3739A1BDC}">
-  <dimension ref="A1:W142"/>
+  <dimension ref="B1:X146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E11"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="53.44140625" customWidth="1"/>
+    <col min="2" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="53.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="2:24" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="4"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -1024,23 +1055,23 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
-    </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="X1" s="4"/>
+    </row>
+    <row r="3" spans="2:24" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="3"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -1051,1281 +1082,1417 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-    </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="5"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="7" spans="2:24" s="1" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="20"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-    </row>
-    <row r="9" spans="1:23" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="G7" s="5"/>
+    </row>
+    <row r="9" spans="2:24" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
-    </row>
-    <row r="11" spans="1:23" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="F9" s="23"/>
+    </row>
+    <row r="11" spans="2:24" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="8" t="s">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="9">
         <v>50</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="E14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="9">
         <v>50</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="E15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="9">
         <v>100</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="E16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="9">
         <v>50</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="9">
         <v>200</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="9">
         <v>200</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="9">
         <v>100</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="9">
         <v>100</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="F24" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="9">
+      <c r="D25" s="9">
         <v>100</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="9">
         <v>100</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="F26" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="9">
         <v>200</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="F27" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="9">
         <v>200</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="F28" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="39.6" x14ac:dyDescent="0.4">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="2:6" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="B29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="12" t="s">
+      <c r="C29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
+    <row r="36" spans="2:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="21"/>
-    </row>
-    <row r="39" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23" t="s">
+      <c r="C36" s="20"/>
+    </row>
+    <row r="39" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="23"/>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
-    </row>
-    <row r="41" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+      <c r="F39" s="23"/>
+    </row>
+    <row r="41" spans="2:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B41" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="E41" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="F41" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A43" s="8" t="s">
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="2:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="B43" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="D43" s="8"/>
       <c r="E43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="39.6" x14ac:dyDescent="0.4">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="2:6" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="B44" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="9">
         <v>100</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="2:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="B45" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="9">
+        <v>100</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="B46" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="9">
+      <c r="C46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="9">
         <v>100</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="8" t="s">
+      <c r="E46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-    </row>
-    <row r="47" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="14"/>
+    <row r="47" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="14"/>
-    </row>
-    <row r="48" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="14"/>
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
       <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="14"/>
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="14"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="14"/>
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="14"/>
-    </row>
-    <row r="51" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="21" t="s">
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+    </row>
+    <row r="52" spans="2:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="14"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="15"/>
       <c r="E52" s="14"/>
-    </row>
-    <row r="53" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
+      <c r="F52" s="14"/>
+    </row>
+    <row r="53" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+    </row>
+    <row r="54" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+    </row>
+    <row r="55" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="D56" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="E56" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="F56" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E57" s="8" t="s">
+      <c r="D58" s="9"/>
+      <c r="E58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="16"/>
-    </row>
-    <row r="58" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="8" t="s">
+      <c r="G58" s="16"/>
+    </row>
+    <row r="59" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" s="10" t="s">
+      <c r="D59" s="9"/>
+      <c r="E59" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F58" s="16"/>
-    </row>
-    <row r="59" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="8" t="s">
+      <c r="G59" s="16"/>
+    </row>
+    <row r="60" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="9">
+      <c r="C60" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="9">
         <v>100</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E59" s="8" t="s">
+      <c r="E60" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F59" s="16"/>
-    </row>
-    <row r="60" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="8" t="s">
+      <c r="G60" s="16"/>
+    </row>
+    <row r="61" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="9">
+      <c r="C61" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="9">
         <v>100</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E60" s="8" t="s">
+      <c r="E61" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F60" s="16"/>
-    </row>
-    <row r="61" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="8" t="s">
+      <c r="G61" s="16"/>
+    </row>
+    <row r="62" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="8" t="s">
+      <c r="D62" s="9"/>
+      <c r="E62" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="F62" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F61" s="16"/>
-    </row>
-    <row r="62" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="8" t="s">
+      <c r="G62" s="16"/>
+    </row>
+    <row r="63" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E62" s="8" t="s">
+      <c r="D63" s="9"/>
+      <c r="E63" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F62" s="16"/>
-    </row>
-    <row r="63" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="8" t="s">
+      <c r="G63" s="16"/>
+    </row>
+    <row r="64" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="9">
+      <c r="C64" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="9">
         <v>100</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="16"/>
-    </row>
-    <row r="64" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="8" t="s">
+      <c r="E64" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="16"/>
+    </row>
+    <row r="65" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="8" t="s">
+      <c r="D65" s="9"/>
+      <c r="E65" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="16"/>
-    </row>
-    <row r="65" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="8" t="s">
+      <c r="F65" s="8"/>
+      <c r="G65" s="16"/>
+    </row>
+    <row r="66" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" s="9">
+      <c r="C66" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="9">
         <v>200</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="16"/>
-    </row>
-    <row r="66" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="8" t="s">
+      <c r="E66" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="16"/>
+    </row>
+    <row r="67" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="9">
+      <c r="C67" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="9">
         <v>200</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="E67" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="16"/>
-    </row>
-    <row r="67" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="8" t="s">
+      <c r="F67" s="8"/>
+      <c r="G67" s="16"/>
+    </row>
+    <row r="68" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="9">
+      <c r="C68" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="9">
         <v>200</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="E68" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="16"/>
-    </row>
-    <row r="68" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="8" t="s">
+      <c r="F68" s="8"/>
+      <c r="G68" s="16"/>
+    </row>
+    <row r="69" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" s="9">
+      <c r="C69" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="9">
         <v>200</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="16"/>
-    </row>
-    <row r="69" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="8" t="s">
+      <c r="E69" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="16"/>
+    </row>
+    <row r="70" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="16"/>
-    </row>
-    <row r="70" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="8" t="s">
+      <c r="D70" s="9"/>
+      <c r="E70" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="16"/>
+    </row>
+    <row r="71" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E70" s="8" t="s">
+      <c r="D71" s="9"/>
+      <c r="E71" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F70" s="16"/>
-    </row>
-    <row r="71" spans="1:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="12" t="s">
+      <c r="G71" s="16"/>
+    </row>
+    <row r="72" spans="2:7" ht="58.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71" s="18">
+      <c r="C72" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="17">
         <v>100</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="E72" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="F72" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F71" s="16"/>
-    </row>
-    <row r="72" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-    </row>
-    <row r="73" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="16"/>
+      <c r="G72" s="16"/>
+    </row>
+    <row r="73" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
-    </row>
-    <row r="74" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="21" t="s">
+      <c r="G73" s="16"/>
+    </row>
+    <row r="74" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+    </row>
+    <row r="75" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="2:7" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="23" t="s">
+      <c r="C76" s="20"/>
+    </row>
+    <row r="77" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-    </row>
-    <row r="78" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="13" t="s">
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+    </row>
+    <row r="79" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="D80" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="E80" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="F80" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="16" t="s">
+    <row r="81" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B82" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="C82" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="16" t="s">
+      <c r="D82" s="8"/>
+      <c r="E82" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="C83" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E82" s="17" t="s">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="16" t="s">
+    <row r="84" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B83" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C83" s="19">
+      <c r="C84" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="9">
         <v>100</v>
       </c>
-      <c r="D83" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E83" s="16" t="s">
+      <c r="E84" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="16" t="s">
+    <row r="85" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B85" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="C85" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E84" s="16" t="s">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="16" t="s">
+    <row r="86" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B86" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="C86" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E85" s="17" t="s">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="21" t="s">
+    <row r="87" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B89" s="21"/>
-    </row>
-    <row r="90" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="1:5" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="24" t="s">
+      <c r="C90" s="20"/>
+    </row>
+    <row r="91" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="2:6" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-    </row>
-    <row r="92" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="13" t="s">
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+    </row>
+    <row r="93" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="2:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="C94" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="D94" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="E94" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E93" s="13" t="s">
+      <c r="F94" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="8" t="s">
+    <row r="95" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B96" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="C96" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E95" s="8" t="s">
+      <c r="D96" s="8"/>
+      <c r="E96" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="8" t="s">
+    <row r="97" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B97" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="C97" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E96" s="10" t="s">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="8" t="s">
+    <row r="98" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B98" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C97" s="9">
+      <c r="C98" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="9">
         <v>100</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E97" s="8" t="s">
+      <c r="E98" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="8" t="s">
+    <row r="99" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B99" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C98" s="9">
+      <c r="C99" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" s="9">
         <v>100</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E98" s="8" t="s">
+      <c r="E99" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="25" t="s">
+    <row r="100" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="2:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B102" s="25"/>
-    </row>
-    <row r="103" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="24" t="s">
+      <c r="C103" s="26"/>
+    </row>
+    <row r="104" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-    </row>
-    <row r="105" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="13" t="s">
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+    </row>
+    <row r="106" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="C107" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="D107" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D106" s="13" t="s">
+      <c r="E107" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E106" s="13" t="s">
+      <c r="F107" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="8" t="s">
+    <row r="108" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B109" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="C109" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E108" s="8" t="s">
+      <c r="D109" s="8"/>
+      <c r="E109" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F109" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="8" t="s">
+    <row r="110" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B110" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="C110" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E109" s="8" t="s">
+      <c r="D110" s="8"/>
+      <c r="E110" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F110" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="8" t="s">
+    <row r="111" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B111" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="C111" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E110" s="8" t="s">
+      <c r="D111" s="8"/>
+      <c r="E111" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F111" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="6" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="10" t="s">
+    <row r="112" spans="2:6" s="6" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B112" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F112" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B111" s="10" t="s">
+    </row>
+    <row r="113" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B113" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C116" s="20"/>
+    </row>
+    <row r="117" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="2:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="2:6" s="14" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B120" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E111" s="10" t="s">
+      <c r="D120" s="8"/>
+      <c r="E120" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" s="14" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B121" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" s="14" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B122" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" s="14" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B123" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="9">
+        <v>200</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="2:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="20" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B112" s="8" t="s">
+      <c r="C126" s="20"/>
+    </row>
+    <row r="127" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+    </row>
+    <row r="129" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+    </row>
+    <row r="130" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B132" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F132" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B133" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F133" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B134" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134" s="18">
+        <v>200</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F134" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C137" s="20"/>
+    </row>
+    <row r="138" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="24"/>
+    </row>
+    <row r="140" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+    </row>
+    <row r="143" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B143" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B144" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B145" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D145" s="8">
+        <v>300</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B146" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C146" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B115" s="21"/>
-    </row>
-    <row r="116" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E117" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" spans="1:5" s="14" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" s="14" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" s="14" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121" s="9">
-        <v>200</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B124" s="21"/>
-    </row>
-    <row r="125" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B126" s="22"/>
-      <c r="C126" s="22"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="22"/>
-    </row>
-    <row r="127" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="20"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="20"/>
-      <c r="E127" s="20"/>
-    </row>
-    <row r="128" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E128" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B130" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B132" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C132" s="19">
-        <v>200</v>
-      </c>
-      <c r="D132" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A115:B115"/>
+  <mergeCells count="19">
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:F54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2334,531 +2501,546 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E691AD0-9E83-4F8B-9A0B-F09FAA3FED49}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="B1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
-    <col min="5" max="5" width="63.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="4" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="63.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="2:13" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-    </row>
-    <row r="3" spans="1:12" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-    </row>
-    <row r="6" spans="1:12" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="21"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="23"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="3" spans="2:13" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+    </row>
+    <row r="6" spans="2:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
+        <v>142</v>
+      </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
-    </row>
-    <row r="10" spans="1:12" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="F8" s="23"/>
+    </row>
+    <row r="10" spans="2:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="8" t="s">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="9">
+        <v>200</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="C15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="9">
         <v>200</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="E15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="8">
-        <v>200</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="21"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-    </row>
-    <row r="24" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+    <row r="20" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="20"/>
+    </row>
+    <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="24" spans="2:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="E24" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="F24" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A25" s="8"/>
+    <row r="25" spans="2:6" ht="19.8" x14ac:dyDescent="0.4">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A26" s="8" t="s">
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="2:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="B26" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="B27" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="9">
+        <v>200</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="B28" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="B29" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="9">
+        <v>200</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="B30" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C30" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="9">
+        <v>200</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="36" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+    </row>
+    <row r="38" spans="2:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B38" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A27" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="9">
         <v>200</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A28" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A29" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="E42" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="8">
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="20"/>
+    </row>
+    <row r="49" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+    </row>
+    <row r="51" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="28">
         <v>200</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A30" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="8">
+      <c r="E53" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="28">
         <v>200</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" s="21"/>
-    </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-    </row>
-    <row r="38" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="8">
+      <c r="E55" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="28">
         <v>200</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B47" s="21"/>
-    </row>
-    <row r="49" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-    </row>
-    <row r="51" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53">
+      <c r="E56" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="28"/>
+    </row>
+    <row r="57" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="28">
         <v>200</v>
       </c>
-      <c r="D53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>135</v>
-      </c>
-      <c r="B54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="E57" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="28"/>
+    </row>
+    <row r="58" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="B55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55">
+      <c r="C58" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="28">
         <v>200</v>
       </c>
-      <c r="D55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="E58" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="28"/>
+    </row>
+    <row r="59" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56">
-        <v>200</v>
-      </c>
-      <c r="D56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="C59" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="28"/>
+    </row>
+    <row r="60" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="B57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57">
-        <v>200</v>
-      </c>
-      <c r="D57" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>139</v>
-      </c>
-      <c r="B58" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58">
-        <v>200</v>
-      </c>
-      <c r="D58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>140</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="C60" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>141</v>
-      </c>
-      <c r="B60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" t="s">
-        <v>27</v>
-      </c>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
